--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -493,14 +493,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-09-19 14:41:34</t>
+          <t>2025-09-19 20:13:37</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1758292894.26</v>
+        <v>1758312816.99</v>
       </c>
     </row>
   </sheetData>
